--- a/IT_testing/testing/Lab_4/Чек-лист.xlsx
+++ b/IT_testing/testing/Lab_4/Чек-лист.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Список проверок" sheetId="1" r:id="rId1"/>
+    <sheet name="Легенда" sheetId="2" r:id="rId1"/>
+    <sheet name="Список проверок" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
+    <definedName name="Status" localSheetId="0">'[1]Тестовые данные'!#REF!</definedName>
     <definedName name="Status">'[1]Тестовые данные'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="145">
   <si>
     <t>V1.0</t>
   </si>
@@ -120,9 +122,6 @@
     <t>Мин. Символов (1)</t>
   </si>
   <si>
-    <t>Пустое</t>
-  </si>
-  <si>
     <t>Недопустимые спец.символы</t>
   </si>
   <si>
@@ -138,18 +137,6 @@
     <t>Проект</t>
   </si>
   <si>
-    <t>Макс. Дата окончания (31.12.2099)</t>
-  </si>
-  <si>
-    <t>Мин. Дата начала (01.01.1990)</t>
-  </si>
-  <si>
-    <t>Мин. Дата начала - 1</t>
-  </si>
-  <si>
-    <t>Макс. Дата начала + 1</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -291,18 +278,6 @@
     <t>10.</t>
   </si>
   <si>
-    <t>11.</t>
-  </si>
-  <si>
-    <t>11.1.</t>
-  </si>
-  <si>
-    <t>11.2.</t>
-  </si>
-  <si>
-    <t>11.3.</t>
-  </si>
-  <si>
     <t>7.3.</t>
   </si>
   <si>
@@ -348,17 +323,155 @@
     <t>https://github.com/Mariia5656/testing_labs/issues/14</t>
   </si>
   <si>
-    <t xml:space="preserve">12. </t>
-  </si>
-  <si>
     <t>Возможность удаления записи</t>
+  </si>
+  <si>
+    <t>Недопустимые спец.символы (Наазвание, Работа)</t>
+  </si>
+  <si>
+    <t>мин - 1 (Название, Работа)</t>
+  </si>
+  <si>
+    <t>макс + 1 (Название, Работа)</t>
+  </si>
+  <si>
+    <t>Переполнение поля (Название, Работа)</t>
+  </si>
+  <si>
+    <t>Мин. Дата - 1 (Дата )</t>
+  </si>
+  <si>
+    <t>Макс. Дата + 1 (Дата)</t>
+  </si>
+  <si>
+    <t>Пустое (Название, Работа, Дата)</t>
+  </si>
+  <si>
+    <t>6.8.</t>
+  </si>
+  <si>
+    <t>6.9.</t>
+  </si>
+  <si>
+    <t>Мин. Дата начала (01.01.1990) (Дата)</t>
+  </si>
+  <si>
+    <t>Макс. Дата окончания (31.12.2099) (Дата)</t>
+  </si>
+  <si>
+    <t>10.1.</t>
+  </si>
+  <si>
+    <t>10.2.</t>
+  </si>
+  <si>
+    <t>10.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. </t>
+  </si>
+  <si>
+    <t>Возможность создания проекта</t>
+  </si>
+  <si>
+    <t>Возможность редактирования проекта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пустое </t>
+  </si>
+  <si>
+    <t>Ошибка валидации при недопустимом вводе (Описание, Сокращенное название, Название)</t>
+  </si>
+  <si>
+    <t>Автор</t>
+  </si>
+  <si>
+    <t>Создание документа</t>
+  </si>
+  <si>
+    <t>V1.0.0</t>
+  </si>
+  <si>
+    <t>дата</t>
+  </si>
+  <si>
+    <t>Описание изменений</t>
+  </si>
+  <si>
+    <t>Версия</t>
+  </si>
+  <si>
+    <t>История изменений</t>
+  </si>
+  <si>
+    <t>Недоступно для тестирования / функция не имплементирована</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Тест ОК, функция работает стабильно</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK</t>
+  </si>
+  <si>
+    <t>Обнаружены дефекты со статусами: Важный, Средний, Незначительный</t>
+  </si>
+  <si>
+    <t>&lt;Issue ID&gt;</t>
+  </si>
+  <si>
+    <t>Обнаружены критические дефекты</t>
+  </si>
+  <si>
+    <t>Вопросы по функциональности, тест отложен</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Обозначение результатов тестирования</t>
+  </si>
+  <si>
+    <t>"Спецификация_документ.doc" - спецификация требований.</t>
+  </si>
+  <si>
+    <t>Ссылки:</t>
+  </si>
+  <si>
+    <t>&lt;компания&gt;</t>
+  </si>
+  <si>
+    <t>Предоставил:</t>
+  </si>
+  <si>
+    <t>Предоставлено для:</t>
+  </si>
+  <si>
+    <t>Проектная команда тестирования, менеджеры проекта, Заказчик</t>
+  </si>
+  <si>
+    <t>Аудитория:</t>
+  </si>
+  <si>
+    <t>Список проверок для функционального/регрессионного тестирования</t>
+  </si>
+  <si>
+    <t>Апанасевич Мария</t>
+  </si>
+  <si>
+    <t>Система &lt;Проект&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,8 +556,58 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,8 +650,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -600,12 +792,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -673,19 +936,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -699,10 +949,112 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1033,6 +1385,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="64"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="64"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="60"/>
+    </row>
+    <row r="8" spans="1:7" s="57" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="49"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="49"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="49"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="49"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="49"/>
+    </row>
+    <row r="14" spans="1:7" s="38" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="46"/>
+    </row>
+    <row r="15" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1042,7 +1590,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1077,19 +1625,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1137,27 +1685,27 @@
       <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1172,13 +1720,13 @@
     </row>
     <row r="6" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1193,13 +1741,13 @@
     </row>
     <row r="7" spans="1:13" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1214,13 +1762,13 @@
     </row>
     <row r="8" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1235,13 +1783,13 @@
     </row>
     <row r="9" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1256,13 +1804,13 @@
     </row>
     <row r="10" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1277,32 +1825,32 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+        <v>66</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -1317,13 +1865,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -1338,7 +1886,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>21</v>
@@ -1357,13 +1905,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -1378,13 +1926,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>104</v>
+      <c r="C16" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -1399,13 +1947,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -1420,7 +1968,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>22</v>
@@ -1439,13 +1987,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -1460,13 +2008,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -1481,13 +2029,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -1502,13 +2050,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -1523,13 +2071,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -1544,13 +2092,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -1565,13 +2113,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -1585,13 +2133,15 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="17"/>
+      <c r="A26" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -1605,13 +2155,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -1625,14 +2175,14 @@
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>37</v>
+      <c r="A28" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -1647,12 +2197,14 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
@@ -1666,12 +2218,14 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
@@ -1685,12 +2239,14 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
@@ -1703,13 +2259,15 @@
       <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="11"/>
+      <c r="A32" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
@@ -1723,14 +2281,12 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>106</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C33" s="28"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
@@ -1743,13 +2299,15 @@
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>90</v>
+      <c r="A34" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="28"/>
+        <v>74</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>96</v>
+      </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
@@ -1762,14 +2320,14 @@
       <c r="M34" s="18"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>105</v>
+      <c r="A35" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>93</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -1783,16 +2341,12 @@
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -1804,12 +2358,16 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="19"/>
+      <c r="A37" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="18"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="18"/>
@@ -1820,15 +2378,15 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>57</v>
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -1841,16 +2399,14 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>101</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
@@ -1862,14 +2418,16 @@
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
     </row>
-    <row r="40" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="17"/>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
@@ -1883,13 +2441,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
@@ -1904,13 +2462,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -1924,15 +2482,13 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="A43" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="11"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
@@ -1945,13 +2501,15 @@
       <c r="M43" s="19"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="11"/>
+      <c r="A44" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
@@ -1965,13 +2523,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
@@ -1984,16 +2542,14 @@
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>72</v>
-      </c>
+    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="17"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -2005,14 +2561,16 @@
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
     </row>
-    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="17"/>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
@@ -2026,13 +2584,13 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
@@ -2047,13 +2605,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
@@ -2068,13 +2626,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
@@ -2088,15 +2646,13 @@
       <c r="M50" s="18"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="A51" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="11"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
@@ -2109,13 +2665,15 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="11"/>
+      <c r="A52" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
@@ -2129,13 +2687,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
@@ -2148,16 +2706,14 @@
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>72</v>
-      </c>
+    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="17"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
@@ -2169,14 +2725,16 @@
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
     </row>
-    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="17"/>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -2190,13 +2748,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
@@ -2211,13 +2769,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
@@ -2231,15 +2789,13 @@
       <c r="M57" s="18"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="A58" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="11"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
@@ -2252,13 +2808,15 @@
       <c r="M58" s="18"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" s="11"/>
+      <c r="A59" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
@@ -2272,13 +2830,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
@@ -2291,16 +2849,14 @@
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>72</v>
-      </c>
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="17"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -2313,13 +2869,15 @@
       <c r="M61" s="18"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="17"/>
+      <c r="B62" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
@@ -2332,14 +2890,14 @@
       <c r="M62" s="18"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
-        <v>95</v>
+      <c r="A63" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
@@ -2354,13 +2912,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
@@ -2375,13 +2933,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
@@ -2396,13 +2954,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
@@ -2416,16 +2974,6 @@
       <c r="M66" s="18"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="18"/>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -2497,17 +3045,17 @@
     <mergeCell ref="C11:M11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65560:C65567 C983083:C983086 C917547:C917550 C852011:C852014 C786475:C786478 C720939:C720942 C655403:C655406 C589867:C589870 C524331:C524334 C458795:C458798 C393259:C393262 C327723:C327726 C262187:C262190 C196651:C196654 C131115:C131118 C65579:C65582 C983079:C983081 C917543:C917545 C852007:C852009 C786471:C786473 C720935:C720937 C655399:C655401 C589863:C589865 C524327:C524329 C458791:C458793 C393255:C393257 C327719:C327721 C262183:C262185 C196647:C196649 C131111:C131113 C65575:C65577 C983073:C983077 C917537:C917541 C852001:C852005 C786465:C786469 C720929:C720933 C655393:C655397 C589857:C589861 C524321:C524325 C458785:C458789 C393249:C393253 C327713:C327717 C262177:C262181 C196641:C196645 C131105:C131109 C65569:C65573 C983058:C983062 C917522:C917526 C851986:C851990 C786450:C786454 C720914:C720918 C655378:C655382 C589842:C589846 C524306:C524310 C458770:C458774 C393234:C393238 C327698:C327702 C262162:C262166 C196626:C196630 C131090:C131094 C65554:C65558 C983056 C917520 C851984 C786448 C720912 C655376 C589840 C524304 C458768 C393232 C327696 C262160 C196624 C131088 C65552 C983064:C983071 C917528:C917535 C851992:C851999 C786456:C786463 C720920:C720927 C655384:C655391 C589848:C589855 C524312:C524319 C458776:C458783 C393240:C393247 C327704:C327711 C262168:C262175 C196632:C196639 C131096:C131103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65559:C65566 C983082:C983085 C917546:C917549 C852010:C852013 C786474:C786477 C720938:C720941 C655402:C655405 C589866:C589869 C524330:C524333 C458794:C458797 C393258:C393261 C327722:C327725 C262186:C262189 C196650:C196653 C131114:C131117 C65578:C65581 C983078:C983080 C917542:C917544 C852006:C852008 C786470:C786472 C720934:C720936 C655398:C655400 C589862:C589864 C524326:C524328 C458790:C458792 C393254:C393256 C327718:C327720 C262182:C262184 C196646:C196648 C131110:C131112 C65574:C65576 C983072:C983076 C917536:C917540 C852000:C852004 C786464:C786468 C720928:C720932 C655392:C655396 C589856:C589860 C524320:C524324 C458784:C458788 C393248:C393252 C327712:C327716 C262176:C262180 C196640:C196644 C131104:C131108 C65568:C65572 C983057:C983061 C917521:C917525 C851985:C851989 C786449:C786453 C720913:C720917 C655377:C655381 C589841:C589845 C524305:C524309 C458769:C458773 C393233:C393237 C327697:C327701 C262161:C262165 C196625:C196629 C131089:C131093 C65553:C65557 C983055 C917519 C851983 C786447 C720911 C655375 C589839 C524303 C458767 C393231 C327695 C262159 C196623 C131087 C65551 C983063:C983070 C917527:C917534 C851991:C851998 C786455:C786462 C720919:C720926 C655383:C655390 C589847:C589854 C524311:C524318 C458775:C458782 C393239:C393246 C327703:C327710 C262167:C262174 C196631:C196638 C131095:C131102">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C39" r:id="rId1"/>
+    <hyperlink ref="C38" r:id="rId1"/>
     <hyperlink ref="C16" r:id="rId2"/>
-    <hyperlink ref="C35" r:id="rId3"/>
-    <hyperlink ref="C33" r:id="rId4"/>
-    <hyperlink ref="C36" r:id="rId5"/>
-    <hyperlink ref="C38" r:id="rId6"/>
+    <hyperlink ref="C34" r:id="rId3"/>
+    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C35" r:id="rId5"/>
+    <hyperlink ref="C37" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
